--- a/studies/compareScalingLaws_TLEM2_0.xlsx
+++ b/studies/compareScalingLaws_TLEM2_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomechanics\Hip\Code\HipJointReactionForceModel\studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomechanics\Hip\Code\HipJointForceModel\studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD0991-AC3A-43B0-A9A8-17A0317E2E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A9CD3F-3CFD-48A4-BEEF-2DEC50B335B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="OLS" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
     <t>Pauwels</t>
   </si>
   <si>
@@ -47,16 +56,16 @@
     <t>MAE Dir.</t>
   </si>
   <si>
-    <t>6.0 (2.7)</t>
-  </si>
-  <si>
-    <t>4.2 (3.7)✝</t>
-  </si>
-  <si>
-    <t>4.7 (3.2)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.3)✝</t>
+    <t>3.8 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (3.1)</t>
+  </si>
+  <si>
+    <t>3.3 (2.3)</t>
   </si>
   <si>
     <t>Debrunner</t>
@@ -80,16 +89,16 @@
     <t>MAE Dir.</t>
   </si>
   <si>
-    <t>5.5 (2.6)</t>
-  </si>
-  <si>
-    <t>4.1 (3.6)✝</t>
-  </si>
-  <si>
-    <t>4.4 (3.2)✝</t>
-  </si>
-  <si>
-    <t>2.8 (2.3)✝</t>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.6)</t>
+  </si>
+  <si>
+    <t>3.3 (3.2)</t>
+  </si>
+  <si>
+    <t>2.8 (2.3)</t>
   </si>
   <si>
     <t>Iglic</t>
@@ -101,31 +110,25 @@
     <t>34.8 (28.0)</t>
   </si>
   <si>
-    <t>12.5 (19.8)✝</t>
-  </si>
-  <si>
-    <t>27.5 (24.3)✝</t>
-  </si>
-  <si>
     <t>15.3 (17.0)</t>
   </si>
   <si>
     <t>MAE Dir.</t>
   </si>
   <si>
-    <t>4.8 (2.5)</t>
-  </si>
-  <si>
-    <t>7.7 (4.9)</t>
-  </si>
-  <si>
-    <t>6.0 (2.5)</t>
+    <t>6.1 (2.5)</t>
+  </si>
+  <si>
+    <t>7.6 (4.0)</t>
+  </si>
+  <si>
+    <t>6.7 (2.2)</t>
   </si>
   <si>
     <t>5.6 (5.5)</t>
   </si>
   <si>
-    <t>Schimmelpfennig2020</t>
+    <t>mediTEC2020</t>
   </si>
   <si>
     <t>MAE Mag.</t>
@@ -137,30 +140,33 @@
     <t>119.5 (25.7)</t>
   </si>
   <si>
-    <t>87.2 (49.9)✝</t>
-  </si>
-  <si>
-    <t>29.8 (21.1)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.0 (2.8)</t>
-  </si>
-  <si>
-    <t>7.2 (4.3)</t>
-  </si>
-  <si>
-    <t>5.1 (2.9)</t>
-  </si>
-  <si>
-    <t>4.7 (3.7)</t>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>6.9 (4.8)</t>
+  </si>
+  <si>
+    <t>6.1 (2.7)</t>
+  </si>
+  <si>
+    <t>4.6 (3.7)</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
     <t>Pauwels</t>
   </si>
   <si>
@@ -170,9 +176,6 @@
     <t>40.7 (29.4)</t>
   </si>
   <si>
-    <t>55.7 (12.1)✝</t>
-  </si>
-  <si>
     <t>40.3 (29.0)</t>
   </si>
   <si>
@@ -182,16 +185,13 @@
     <t>MAE Dir.</t>
   </si>
   <si>
-    <t>7.5 (3.5)</t>
-  </si>
-  <si>
-    <t>4.4 (1.8)✝</t>
-  </si>
-  <si>
-    <t>6.0 (4.8)✝</t>
-  </si>
-  <si>
-    <t>3.7 (2.4)✝</t>
+    <t>6.5 (3.2)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>5.8 (4.6)</t>
   </si>
   <si>
     <t>Debrunner</t>
@@ -215,16 +215,16 @@
     <t>MAE Dir.</t>
   </si>
   <si>
-    <t>7.0 (3.4)</t>
-  </si>
-  <si>
-    <t>4.2 (1.6)✝</t>
-  </si>
-  <si>
-    <t>5.5 (4.9)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.8)✝</t>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>3.6 (2.2)</t>
+  </si>
+  <si>
+    <t>5.3 (4.6)</t>
+  </si>
+  <si>
+    <t>3.3 (2.8)</t>
   </si>
   <si>
     <t>Iglic</t>
@@ -239,28 +239,334 @@
     <t>10.7 (8.3)</t>
   </si>
   <si>
-    <t>20.0 (25.4)✝</t>
-  </si>
-  <si>
     <t>4.4 (21.0)</t>
   </si>
   <si>
     <t>MAE Dir.</t>
   </si>
   <si>
+    <t>5.8 (4.9)</t>
+  </si>
+  <si>
+    <t>6.9 (4.7)</t>
+  </si>
+  <si>
+    <t>6.0 (6.1)</t>
+  </si>
+  <si>
+    <t>5.5 (6.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)</t>
+  </si>
+  <si>
+    <t>130.3 (29.7)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
+  </si>
+  <si>
+    <t>5.5 (4.3)</t>
+  </si>
+  <si>
+    <t>5.6 (3.7)</t>
+  </si>
+  <si>
+    <t>55.7 (12.1)†</t>
+  </si>
+  <si>
+    <t>20.0 (25.4)†</t>
+  </si>
+  <si>
+    <t>88.7 (39.6)†</t>
+  </si>
+  <si>
+    <t>3.7 (2.4)†</t>
+  </si>
+  <si>
+    <t>38.4 (37.6)†</t>
+  </si>
+  <si>
+    <t>4.9 (5.1)†</t>
+  </si>
+  <si>
+    <t>12.5 (19.8)†</t>
+  </si>
+  <si>
+    <t>27.5 (24.3)†</t>
+  </si>
+  <si>
+    <t>87.2 (49.9)†</t>
+  </si>
+  <si>
+    <t>29.8 (21.1)†</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>34.6 (29.3)</t>
+  </si>
+  <si>
+    <t>58.8 (27.1)</t>
+  </si>
+  <si>
+    <t>32.9 (28.3)</t>
+  </si>
+  <si>
+    <t>44.1 (32.4)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>3.8 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (3.1)</t>
+  </si>
+  <si>
+    <t>3.3 (2.3)</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)</t>
+  </si>
+  <si>
+    <t>18.6 (12.3)</t>
+  </si>
+  <si>
+    <t>18.4 (20.0)</t>
+  </si>
+  <si>
+    <t>16.4 (19.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.6)</t>
+  </si>
+  <si>
+    <t>3.3 (3.2)</t>
+  </si>
+  <si>
+    <t>2.8 (2.3)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>34.8 (28.0)</t>
+  </si>
+  <si>
+    <t>12.5 (19.8)†</t>
+  </si>
+  <si>
+    <t>27.5 (24.3)†</t>
+  </si>
+  <si>
+    <t>15.3 (17.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.1 (2.5)</t>
+  </si>
+  <si>
+    <t>7.6 (4.0)</t>
+  </si>
+  <si>
+    <t>6.7 (2.2)</t>
+  </si>
+  <si>
+    <t>5.6 (5.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)</t>
+  </si>
+  <si>
+    <t>119.5 (25.7)</t>
+  </si>
+  <si>
+    <t>87.2 (49.9)†</t>
+  </si>
+  <si>
+    <t>29.8 (21.1)†</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>6.9 (4.8)</t>
+  </si>
+  <si>
+    <t>6.1 (2.7)</t>
+  </si>
+  <si>
     <t>4.6 (3.7)</t>
   </si>
   <si>
-    <t>7.4 (5.5)</t>
-  </si>
-  <si>
-    <t>5.7 (5.4)</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>Pauwels</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>40.7 (29.4)</t>
+  </si>
+  <si>
+    <t>55.7 (12.1)†</t>
+  </si>
+  <si>
+    <t>40.3 (29.0)</t>
+  </si>
+  <si>
+    <t>51.5 (13.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.5 (3.2)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>5.8 (4.6)</t>
+  </si>
+  <si>
+    <t>3.7 (2.4)†</t>
+  </si>
+  <si>
+    <t>Debrunner</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)</t>
+  </si>
+  <si>
+    <t>16.1 (7.1)</t>
+  </si>
+  <si>
+    <t>13.7 (4.7)</t>
+  </si>
+  <si>
+    <t>12.7 (9.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>3.6 (2.2)</t>
+  </si>
+  <si>
+    <t>5.3 (4.6)</t>
+  </si>
+  <si>
+    <t>3.3 (2.8)</t>
+  </si>
+  <si>
+    <t>Iglic</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>26.6 (28.6)</t>
+  </si>
+  <si>
+    <t>10.7 (8.3)</t>
+  </si>
+  <si>
+    <t>20.0 (25.4)†</t>
+  </si>
+  <si>
+    <t>4.4 (21.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.8 (4.9)</t>
+  </si>
+  <si>
+    <t>6.9 (4.7)</t>
+  </si>
+  <si>
+    <t>6.0 (6.1)</t>
   </si>
   <si>
     <t>5.5 (6.5)</t>
   </si>
   <si>
-    <t>Schimmelpfennig2020</t>
+    <t>mediTEC2020</t>
   </si>
   <si>
     <t>MAE Mag.</t>
@@ -272,610 +578,25 @@
     <t>130.3 (29.7)</t>
   </si>
   <si>
-    <t>88.7 (39.6)✝</t>
-  </si>
-  <si>
-    <t>38.4 (37.6)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.8 (3.0)</t>
-  </si>
-  <si>
-    <t>5.6 (4.1)</t>
-  </si>
-  <si>
-    <t>6.1 (4.0)</t>
-  </si>
-  <si>
-    <t>4.9 (5.1)</t>
-  </si>
-  <si>
-    <t>LandmarkDeformableBones</t>
-  </si>
-  <si>
-    <t>NonUniformLinearA</t>
-  </si>
-  <si>
-    <t>NonUniformLinearB</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>NonUniformLinearA</t>
-  </si>
-  <si>
-    <t>NonUniformLinearB</t>
-  </si>
-  <si>
-    <t>LandmarkDeformableBones</t>
-  </si>
-  <si>
-    <t>Pauwels</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>34.6 (29.3)</t>
-  </si>
-  <si>
-    <t>58.8 (27.1)</t>
-  </si>
-  <si>
-    <t>32.9 (28.3)</t>
-  </si>
-  <si>
-    <t>44.1 (32.4)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>6.0 (2.7)</t>
-  </si>
-  <si>
-    <t>4.2 (3.7)✝</t>
-  </si>
-  <si>
-    <t>4.7 (3.2)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.3)✝</t>
-  </si>
-  <si>
-    <t>Debrunner</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>19.9 (21.5)</t>
-  </si>
-  <si>
-    <t>18.6 (12.3)</t>
-  </si>
-  <si>
-    <t>18.4 (20.0)</t>
-  </si>
-  <si>
-    <t>16.4 (19.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.5 (2.6)</t>
-  </si>
-  <si>
-    <t>4.1 (3.6)✝</t>
-  </si>
-  <si>
-    <t>4.4 (3.2)✝</t>
-  </si>
-  <si>
-    <t>2.8 (2.3)✝</t>
-  </si>
-  <si>
-    <t>Iglic</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>34.8 (28.0)</t>
-  </si>
-  <si>
-    <t>12.5 (19.8)✝</t>
-  </si>
-  <si>
-    <t>27.5 (24.3)✝</t>
-  </si>
-  <si>
-    <t>15.3 (17.0)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>4.8 (2.5)</t>
-  </si>
-  <si>
-    <t>7.7 (4.9)</t>
-  </si>
-  <si>
-    <t>6.0 (2.5)</t>
-  </si>
-  <si>
-    <t>5.6 (5.5)</t>
-  </si>
-  <si>
-    <t>Schimmelpfennig2020</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>111.0 (54.5)</t>
-  </si>
-  <si>
-    <t>119.5 (25.7)</t>
-  </si>
-  <si>
-    <t>87.2 (49.9)✝</t>
-  </si>
-  <si>
-    <t>29.8 (21.1)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.0 (2.8)</t>
-  </si>
-  <si>
-    <t>7.2 (4.3)</t>
-  </si>
-  <si>
-    <t>5.1 (2.9)</t>
-  </si>
-  <si>
-    <t>4.7 (3.7)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>NonUniformLinearA</t>
-  </si>
-  <si>
-    <t>NonUniformLinearB</t>
-  </si>
-  <si>
-    <t>LandmarkDeformableBones</t>
-  </si>
-  <si>
-    <t>Pauwels</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>40.7 (29.4)</t>
-  </si>
-  <si>
-    <t>55.7 (12.1)✝</t>
-  </si>
-  <si>
-    <t>40.3 (29.0)</t>
-  </si>
-  <si>
-    <t>51.5 (13.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>7.5 (3.5)</t>
-  </si>
-  <si>
-    <t>4.4 (1.8)✝</t>
-  </si>
-  <si>
-    <t>6.0 (4.8)✝</t>
-  </si>
-  <si>
-    <t>3.7 (2.4)✝</t>
-  </si>
-  <si>
-    <t>Debrunner</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>14.8 (5.0)</t>
-  </si>
-  <si>
-    <t>16.1 (7.1)</t>
-  </si>
-  <si>
-    <t>13.7 (4.7)</t>
-  </si>
-  <si>
-    <t>12.7 (9.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>7.0 (3.4)</t>
-  </si>
-  <si>
-    <t>4.2 (1.6)✝</t>
-  </si>
-  <si>
-    <t>5.5 (4.9)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.8)✝</t>
-  </si>
-  <si>
-    <t>Iglic</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>26.6 (28.6)</t>
-  </si>
-  <si>
-    <t>10.7 (8.3)</t>
-  </si>
-  <si>
-    <t>20.0 (25.4)✝</t>
-  </si>
-  <si>
-    <t>4.4 (21.0)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>4.6 (3.7)</t>
-  </si>
-  <si>
-    <t>7.4 (5.5)</t>
-  </si>
-  <si>
-    <t>5.7 (5.4)</t>
-  </si>
-  <si>
-    <t>5.5 (6.5)</t>
-  </si>
-  <si>
-    <t>Schimmelpfennig2020</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>118.9 (75.7)</t>
-  </si>
-  <si>
-    <t>130.3 (29.7)</t>
-  </si>
-  <si>
-    <t>88.7 (39.6)✝</t>
-  </si>
-  <si>
-    <t>38.4 (37.6)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.8 (3.0)</t>
-  </si>
-  <si>
-    <t>5.6 (4.1)</t>
-  </si>
-  <si>
-    <t>6.1 (4.0)</t>
-  </si>
-  <si>
-    <t>4.9 (5.1)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>NonUniformLinearA</t>
-  </si>
-  <si>
-    <t>NonUniformLinearB</t>
-  </si>
-  <si>
-    <t>LandmarkDeformableBones</t>
-  </si>
-  <si>
-    <t>Pauwels</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>34.6 (29.3)</t>
-  </si>
-  <si>
-    <t>58.8 (27.1)</t>
-  </si>
-  <si>
-    <t>32.9 (28.3)</t>
-  </si>
-  <si>
-    <t>44.1 (32.4)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>6.0 (2.7)</t>
-  </si>
-  <si>
-    <t>4.2 (3.7)✝</t>
-  </si>
-  <si>
-    <t>4.7 (3.2)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.3)✝</t>
-  </si>
-  <si>
-    <t>Debrunner</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>19.9 (21.5)</t>
-  </si>
-  <si>
-    <t>18.6 (12.3)</t>
-  </si>
-  <si>
-    <t>18.4 (20.0)</t>
-  </si>
-  <si>
-    <t>16.4 (19.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.5 (2.6)</t>
-  </si>
-  <si>
-    <t>4.1 (3.6)✝</t>
-  </si>
-  <si>
-    <t>4.4 (3.2)✝</t>
-  </si>
-  <si>
-    <t>2.8 (2.3)✝</t>
-  </si>
-  <si>
-    <t>Iglic</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>34.8 (28.0)</t>
-  </si>
-  <si>
-    <t>12.5 (19.8)✝</t>
-  </si>
-  <si>
-    <t>27.5 (24.3)✝</t>
-  </si>
-  <si>
-    <t>15.3 (17.0)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>4.8 (2.5)</t>
-  </si>
-  <si>
-    <t>7.7 (4.9)</t>
-  </si>
-  <si>
-    <t>6.0 (2.5)</t>
-  </si>
-  <si>
-    <t>5.6 (5.5)</t>
-  </si>
-  <si>
-    <t>mediTEC2020</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>111.0 (54.5)</t>
-  </si>
-  <si>
-    <t>119.5 (25.7)</t>
-  </si>
-  <si>
-    <t>87.2 (49.9)✝</t>
-  </si>
-  <si>
-    <t>29.8 (21.1)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.0 (2.8)</t>
-  </si>
-  <si>
-    <t>7.2 (4.3)</t>
-  </si>
-  <si>
-    <t>5.1 (2.9)</t>
-  </si>
-  <si>
-    <t>4.7 (3.7)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>NonUniformLinearA</t>
-  </si>
-  <si>
-    <t>NonUniformLinearB</t>
-  </si>
-  <si>
-    <t>LandmarkDeformableBones</t>
-  </si>
-  <si>
-    <t>Pauwels</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>40.7 (29.4)</t>
-  </si>
-  <si>
-    <t>55.7 (12.1)✝</t>
-  </si>
-  <si>
-    <t>40.3 (29.0)</t>
-  </si>
-  <si>
-    <t>51.5 (13.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>7.5 (3.5)</t>
-  </si>
-  <si>
-    <t>4.4 (1.8)✝</t>
-  </si>
-  <si>
-    <t>6.0 (4.8)✝</t>
-  </si>
-  <si>
-    <t>3.7 (2.4)✝</t>
-  </si>
-  <si>
-    <t>Debrunner</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>14.8 (5.0)</t>
-  </si>
-  <si>
-    <t>16.1 (7.1)</t>
-  </si>
-  <si>
-    <t>13.7 (4.7)</t>
-  </si>
-  <si>
-    <t>12.7 (9.8)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>7.0 (3.4)</t>
-  </si>
-  <si>
-    <t>4.2 (1.6)✝</t>
-  </si>
-  <si>
-    <t>5.5 (4.9)✝</t>
-  </si>
-  <si>
-    <t>3.3 (2.8)✝</t>
-  </si>
-  <si>
-    <t>Iglic</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>26.6 (28.6)</t>
-  </si>
-  <si>
-    <t>10.7 (8.3)</t>
-  </si>
-  <si>
-    <t>20.0 (25.4)✝</t>
-  </si>
-  <si>
-    <t>4.4 (21.0)</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>4.6 (3.7)</t>
-  </si>
-  <si>
-    <t>7.4 (5.5)</t>
-  </si>
-  <si>
-    <t>5.7 (5.4)</t>
-  </si>
-  <si>
-    <t>5.5 (6.5)</t>
-  </si>
-  <si>
-    <t>mediTEC2020</t>
-  </si>
-  <si>
-    <t>MAE Mag.</t>
-  </si>
-  <si>
-    <t>118.9 (75.7)</t>
-  </si>
-  <si>
-    <t>130.3 (29.7)</t>
-  </si>
-  <si>
-    <t>88.7 (39.6)✝</t>
-  </si>
-  <si>
-    <t>38.4 (37.6)✝</t>
-  </si>
-  <si>
-    <t>MAE Dir.</t>
-  </si>
-  <si>
-    <t>5.8 (3.0)</t>
-  </si>
-  <si>
-    <t>5.6 (4.1)</t>
-  </si>
-  <si>
-    <t>6.1 (4.0)</t>
-  </si>
-  <si>
-    <t>4.9 (5.1)</t>
+    <t>88.7 (39.6)†</t>
+  </si>
+  <si>
+    <t>38.4 (37.6)†</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
+  </si>
+  <si>
+    <t>5.5 (4.3)</t>
+  </si>
+  <si>
+    <t>5.6 (3.7)</t>
+  </si>
+  <si>
+    <t>4.9 (5.1)†</t>
   </si>
 </sst>
 </file>
@@ -910,7 +631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1038,13 +759,11 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1076,8 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,17 +1077,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0"/>
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="true"/>
     <col min="2" max="2" width="16.5703125" style="2" bestFit="true" customWidth="true"/>
     <col min="3" max="3" width="8.7109375" style="4" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="8.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="5" max="5" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="10.28515625" style="4" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="10" max="10" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
@@ -1381,163 +1098,163 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="7" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3">
       <c r="B3" s="3"/>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="12" thickBot="true">
       <c r="B7" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1550,17 +1267,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="true"/>
     <col min="2" max="2" width="16.5703125" style="2" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="10.28515625" style="4" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="8.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="5" max="5" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="10.28515625" style="4" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="10" max="10" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
@@ -1571,163 +1290,163 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="5"/>
       <c r="C2" s="7" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="15" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3">
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>282</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" ht="12" thickBot="true">
       <c r="B7" s="6" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/studies/compareScalingLaws_TLEM2_0.xlsx
+++ b/studies/compareScalingLaws_TLEM2_0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>None</t>
   </si>
@@ -567,6 +567,294 @@
   </si>
   <si>
     <t>mediTEC2020</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>118.9 (75.7)</t>
+  </si>
+  <si>
+    <t>130.3 (29.7)</t>
+  </si>
+  <si>
+    <t>88.7 (39.6)†</t>
+  </si>
+  <si>
+    <t>38.4 (37.6)†</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.7 (3.4)</t>
+  </si>
+  <si>
+    <t>5.5 (4.3)</t>
+  </si>
+  <si>
+    <t>5.6 (3.7)</t>
+  </si>
+  <si>
+    <t>4.9 (5.1)†</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>Pauwels2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>34.6 (29.3)</t>
+  </si>
+  <si>
+    <t>58.8 (27.1)</t>
+  </si>
+  <si>
+    <t>32.9 (28.3)</t>
+  </si>
+  <si>
+    <t>44.1 (32.4)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>3.8 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.0)</t>
+  </si>
+  <si>
+    <t>3.5 (3.1)</t>
+  </si>
+  <si>
+    <t>3.3 (2.3)</t>
+  </si>
+  <si>
+    <t>Debrunner2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>19.9 (21.5)</t>
+  </si>
+  <si>
+    <t>18.6 (12.3)</t>
+  </si>
+  <si>
+    <t>18.4 (20.0)</t>
+  </si>
+  <si>
+    <t>16.4 (19.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>3.5 (2.7)</t>
+  </si>
+  <si>
+    <t>3.5 (3.6)</t>
+  </si>
+  <si>
+    <t>3.3 (3.2)</t>
+  </si>
+  <si>
+    <t>2.8 (2.3)</t>
+  </si>
+  <si>
+    <t>Iglic2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>34.8 (28.0)</t>
+  </si>
+  <si>
+    <t>12.5 (19.8)†</t>
+  </si>
+  <si>
+    <t>27.5 (24.3)†</t>
+  </si>
+  <si>
+    <t>15.3 (17.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.1 (2.5)</t>
+  </si>
+  <si>
+    <t>7.6 (4.0)</t>
+  </si>
+  <si>
+    <t>6.7 (2.2)</t>
+  </si>
+  <si>
+    <t>5.6 (5.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>111.0 (54.5)</t>
+  </si>
+  <si>
+    <t>119.5 (25.7)</t>
+  </si>
+  <si>
+    <t>87.2 (49.9)†</t>
+  </si>
+  <si>
+    <t>29.8 (21.1)†</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.8 (2.5)</t>
+  </si>
+  <si>
+    <t>6.9 (4.8)</t>
+  </si>
+  <si>
+    <t>6.1 (2.7)</t>
+  </si>
+  <si>
+    <t>4.6 (3.7)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NonUniformLinearA</t>
+  </si>
+  <si>
+    <t>NonUniformLinearB</t>
+  </si>
+  <si>
+    <t>LandmarkDeformableBones</t>
+  </si>
+  <si>
+    <t>Pauwels2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>40.7 (29.4)</t>
+  </si>
+  <si>
+    <t>55.7 (12.1)†</t>
+  </si>
+  <si>
+    <t>40.3 (29.0)</t>
+  </si>
+  <si>
+    <t>51.5 (13.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.5 (3.2)</t>
+  </si>
+  <si>
+    <t>3.8 (2.2)</t>
+  </si>
+  <si>
+    <t>5.8 (4.6)</t>
+  </si>
+  <si>
+    <t>3.7 (2.4)†</t>
+  </si>
+  <si>
+    <t>Debrunner2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>14.8 (5.0)</t>
+  </si>
+  <si>
+    <t>16.1 (7.1)</t>
+  </si>
+  <si>
+    <t>13.7 (4.7)</t>
+  </si>
+  <si>
+    <t>12.7 (9.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>6.0 (3.3)</t>
+  </si>
+  <si>
+    <t>3.6 (2.2)</t>
+  </si>
+  <si>
+    <t>5.3 (4.6)</t>
+  </si>
+  <si>
+    <t>3.3 (2.8)</t>
+  </si>
+  <si>
+    <t>Iglic2021</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>26.6 (28.6)</t>
+  </si>
+  <si>
+    <t>10.7 (8.3)</t>
+  </si>
+  <si>
+    <t>20.0 (25.4)†</t>
+  </si>
+  <si>
+    <t>4.4 (21.0)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.8 (4.9)</t>
+  </si>
+  <si>
+    <t>6.9 (4.7)</t>
+  </si>
+  <si>
+    <t>6.0 (6.1)</t>
+  </si>
+  <si>
+    <t>5.5 (6.5)</t>
+  </si>
+  <si>
+    <t>mediTEC2021</t>
   </si>
   <si>
     <t>MAE Mag.</t>
@@ -631,7 +919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -759,11 +1047,13 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -795,6 +1085,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,9 +1375,9 @@
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="true"/>
     <col min="2" max="2" width="16.5703125" style="2" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="8.7109375" style="4" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13" style="4" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="7" max="7" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
@@ -1098,163 +1390,163 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="7" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3">
       <c r="B3" s="3"/>
       <c r="C3" s="9" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="12" thickBot="true">
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1275,9 +1567,9 @@
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="true"/>
     <col min="2" max="2" width="16.5703125" style="2" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13" style="4" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="7" max="7" width="9.5703125" style="4" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="7.5703125" style="4" bestFit="true" customWidth="true"/>
@@ -1290,163 +1582,163 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="5"/>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="15" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3">
       <c r="B3" s="6"/>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" ht="12" thickBot="true">
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
